--- a/notes/02_Interest_Rate/B386_Lec02_Interest_Rate.xlsx
+++ b/notes/02_Interest_Rate/B386_Lec02_Interest_Rate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Dropbox\Teaching\Derivatives\LN_202401\Lec02 Interest rates\Lec02_SM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\teaching\BUSS386-Slides\notes\02_Interest_Rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -671,7 +671,7 @@
   <dimension ref="A2:U62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1398,15 +1398,15 @@
         <v>11</v>
       </c>
       <c r="K18" s="4">
-        <f>K17/(1+J3/L3)</f>
-        <v>4.1711478063752887</v>
+        <f>K17</f>
+        <v>4.3126257078308123</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="M18" s="4">
-        <f>M17*(1+J3/F3)^2</f>
-        <v>21.763159080071592</v>
+        <f>M17</f>
+        <v>20.358677405580394</v>
       </c>
       <c r="Q18" t="s">
         <v>39</v>
@@ -1948,15 +1948,15 @@
         <v>11</v>
       </c>
       <c r="K33" s="4">
-        <f>K32/(1+D23/F22)</f>
-        <v>2.7012782567253355</v>
+        <f>K32</f>
+        <v>2.7811248065152636</v>
       </c>
       <c r="L33" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M33" s="4">
-        <f>M32*(1+D23/F22)^2</f>
-        <v>8.5785062799822054</v>
+        <f>M32</f>
+        <v>8.0929966682382712</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2683,7 +2683,7 @@
   <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3088,15 +3088,15 @@
         <v>13</v>
       </c>
       <c r="L18" s="4">
-        <f>L17/(1+$D$3/$F$3)</f>
-        <v>4.0489693585372795</v>
+        <f>L17</f>
+        <v>4.2514178264641433</v>
       </c>
       <c r="M18" t="s">
         <v>14</v>
       </c>
       <c r="N18" s="4">
-        <f>N17/(1+K3/M3)^2</f>
-        <v>17.956263551986222</v>
+        <f>N17</f>
+        <v>19.796780566064811</v>
       </c>
     </row>
     <row r="20" spans="2:14">
